--- a/KC 2025-26 Applications KPI as of June 02, 2025.xlsx
+++ b/KC 2025-26 Applications KPI as of June 02, 2025.xlsx
@@ -2457,10 +2457,10 @@
   <hyperlinks>
     <hyperlink ref="C24" location="'Business (Data) Glossary'!A1" display="Glossary"/>
     <hyperlink ref="C25" location="'App Comparative Report Summary'!A1" display="App Comparative Report Summary"/>
-    <hyperlink ref="C26" location="'{{Term1Yr}} Apps By School'!A1" display="{{Term1Yr}} Apps By School"/>
-    <hyperlink ref="C27" location="'{{Term2Yr}} Apps By School'!A1" display="{{Term2Yr}} Apps By School"/>
-    <hyperlink ref="C28" location="'{{Term3Yr}} Apps By School'!A1" display="{{Term3Yr}} Apps By School"/>
-    <hyperlink ref="C29" location="'{{Term4Yr}} Apps By School'!A1" display="{{Term4Yr}} Apps By School"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C26" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C27" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C28" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" scale="79" horizontalDpi="4294967295" verticalDpi="4294967295"/>
